--- a/lib_template/com.microsite.runner.xlsx
+++ b/lib_template/com.microsite.runner.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="87">
   <si>
     <t>S.No</t>
   </si>
@@ -176,9 +176,6 @@
     <t>https://qc-rakkacafe.munchado.nyc/</t>
   </si>
   <si>
-    <t>Rakka Café</t>
-  </si>
-  <si>
     <t>Hamilton Walker</t>
   </si>
   <si>
@@ -197,9 +194,6 @@
     <t>https://qc-thecountrycafe.munchado.nyc/</t>
   </si>
   <si>
-    <t>The Country Café</t>
-  </si>
-  <si>
     <t>https://qc-makesandwich.munchado.nyc/</t>
   </si>
   <si>
@@ -273,6 +267,15 @@
   </si>
   <si>
     <t>1592 AMSTERDAM AVENUE</t>
+  </si>
+  <si>
+    <t>The Country Caf</t>
+  </si>
+  <si>
+    <t>Rakka Caf</t>
+  </si>
+  <si>
+    <t>https://qc-tabouleh.munchado.nyc/</t>
   </si>
 </sst>
 </file>
@@ -353,7 +356,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -389,6 +392,7 @@
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="10" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -694,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,24 +741,24 @@
         <v>6</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>52</v>
+      <c r="B2" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>86</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>38</v>
@@ -766,318 +770,21 @@
         <v>37</v>
       </c>
       <c r="H2" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row ht="30" r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="J5" s="14" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row ht="30" r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="C2"/>
-    <hyperlink r:id="rId2" ref="C3"/>
-    <hyperlink r:id="rId3" ref="C4"/>
-    <hyperlink r:id="rId4" ref="C5"/>
-    <hyperlink r:id="rId5" ref="C6"/>
-    <hyperlink r:id="rId6" ref="C7"/>
-    <hyperlink r:id="rId7" ref="C8"/>
-    <hyperlink r:id="rId8" ref="C9"/>
-    <hyperlink r:id="rId9" ref="C10"/>
-    <hyperlink r:id="rId10" ref="C11"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1085,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:J24"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1411,10 +1118,10 @@
         <v>6</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1422,7 +1129,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>52</v>
@@ -1443,21 +1150,21 @@
         <v>0</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row ht="60" r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>19</v>
@@ -1475,10 +1182,10 @@
         <v>0</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row ht="30" r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1486,10 +1193,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>20</v>
@@ -1507,10 +1214,10 @@
         <v>0</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1518,10 +1225,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>21</v>
@@ -1539,10 +1246,10 @@
         <v>0</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1550,10 +1257,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>16</v>
@@ -1571,10 +1278,10 @@
         <v>0</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1582,10 +1289,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>22</v>
@@ -1603,10 +1310,10 @@
         <v>0</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1614,10 +1321,10 @@
         <v>13</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>23</v>
@@ -1635,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1646,10 +1353,10 @@
         <v>40</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>24</v>
@@ -1667,10 +1374,10 @@
         <v>0</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1678,10 +1385,10 @@
         <v>14</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>25</v>
@@ -1699,10 +1406,10 @@
         <v>1</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row ht="30" r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1710,10 +1417,10 @@
         <v>15</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>26</v>
@@ -1731,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/lib_template/com.microsite.runner.xlsx
+++ b/lib_template/com.microsite.runner.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="97">
   <si>
     <t>S.No</t>
   </si>
@@ -276,6 +276,36 @@
   </si>
   <si>
     <t>https://qc-tabouleh.munchado.nyc/</t>
+  </si>
+  <si>
+    <t>https://qc-taamtov.munchado.nyc/</t>
+  </si>
+  <si>
+    <t>Tabouleh</t>
+  </si>
+  <si>
+    <t>taamtov</t>
+  </si>
+  <si>
+    <t>"11"</t>
+  </si>
+  <si>
+    <t>"12"</t>
+  </si>
+  <si>
+    <t>Template_12</t>
+  </si>
+  <si>
+    <t>Template_13</t>
+  </si>
+  <si>
+    <t>"8.875"</t>
+  </si>
+  <si>
+    <t>673 9th Avenue</t>
+  </si>
+  <si>
+    <t>41 WEST 47TH STREET</t>
   </si>
 </sst>
 </file>
@@ -356,7 +386,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -392,7 +422,15 @@
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="10" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="1" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -701,7 +739,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B2" sqref="B2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,20 +786,20 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>86</v>
+      <c r="B2" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>36</v>
@@ -790,10 +828,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:J17"/>
+      <selection activeCell="B20" sqref="B20:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1138,7 +1176,7 @@
         <v>18</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>36</v>
@@ -1170,7 +1208,7 @@
         <v>19</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>36</v>
@@ -1202,7 +1240,7 @@
         <v>20</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>36</v>
@@ -1234,7 +1272,7 @@
         <v>21</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>36</v>
@@ -1298,7 +1336,7 @@
         <v>22</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>36</v>
@@ -1330,7 +1368,7 @@
         <v>23</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>36</v>
@@ -1426,7 +1464,7 @@
         <v>26</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="F24" s="12" t="s">
         <v>36</v>
@@ -1442,6 +1480,70 @@
       </c>
       <c r="J24" s="14" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1465,7 +1567,10 @@
     <hyperlink r:id="rId17" ref="C22"/>
     <hyperlink r:id="rId18" ref="C23"/>
     <hyperlink r:id="rId19" ref="C24"/>
+    <hyperlink r:id="rId20" ref="C25"/>
+    <hyperlink r:id="rId21" ref="C26"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
--- a/lib_template/com.microsite.runner.xlsx
+++ b/lib_template/com.microsite.runner.xlsx
@@ -386,7 +386,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -427,9 +427,6 @@
     </xf>
     <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="1" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -786,7 +783,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="10" t="s">

--- a/lib_template/com.microsite.runner.xlsx
+++ b/lib_template/com.microsite.runner.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="97">
   <si>
     <t>S.No</t>
   </si>
@@ -733,10 +733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:J2"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,39 +787,402 @@
         <v>7</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row ht="30" r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C7" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="10" t="b">
+      <c r="E7" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="I2" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>78</v>
+      <c r="I10" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row ht="30" r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="C2"/>
+    <hyperlink r:id="rId2" ref="C3"/>
+    <hyperlink r:id="rId3" ref="C4"/>
+    <hyperlink r:id="rId4" ref="C5"/>
+    <hyperlink r:id="rId5" ref="C6"/>
+    <hyperlink r:id="rId6" ref="C7"/>
+    <hyperlink r:id="rId7" ref="C8"/>
+    <hyperlink r:id="rId8" ref="C9"/>
+    <hyperlink r:id="rId9" ref="C10"/>
+    <hyperlink r:id="rId10" ref="C11"/>
+    <hyperlink r:id="rId11" ref="C12"/>
+    <hyperlink r:id="rId12" ref="C13"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -828,7 +1191,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:J20"/>
+      <selection activeCell="A14" sqref="A14:J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1204,8 +1567,8 @@
       <c r="D16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>94</v>
+      <c r="E16" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>36</v>
@@ -1300,8 +1663,8 @@
       <c r="D19" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>39</v>
+      <c r="E19" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>36</v>
@@ -1396,8 +1759,8 @@
       <c r="D22" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="16" t="s">
-        <v>39</v>
+      <c r="E22" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>36</v>
@@ -1428,8 +1791,8 @@
       <c r="D23" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="16" t="s">
-        <v>39</v>
+      <c r="E23" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>36</v>

--- a/lib_template/com.microsite.runner.xlsx
+++ b/lib_template/com.microsite.runner.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="102">
   <si>
     <t>S.No</t>
   </si>
@@ -306,6 +306,21 @@
   </si>
   <si>
     <t>41 WEST 47TH STREET</t>
+  </si>
+  <si>
+    <t>https://qc-brickovenpizza1.munchado.nyc/</t>
+  </si>
+  <si>
+    <t>489 3RD AVENUE</t>
+  </si>
+  <si>
+    <t>Brick</t>
+  </si>
+  <si>
+    <t>"13"</t>
+  </si>
+  <si>
+    <t>Template_14</t>
   </si>
 </sst>
 </file>
@@ -736,7 +751,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1038,18 +1053,18 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row ht="30" r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>94</v>
@@ -1061,27 +1076,27 @@
         <v>37</v>
       </c>
       <c r="H10" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="13" t="s">
         <v>70</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row ht="30" r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>63</v>
+      <c r="B11" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>86</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>94</v>
@@ -1093,13 +1108,13 @@
         <v>37</v>
       </c>
       <c r="H11" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="13" t="s">
         <v>70</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1107,13 +1122,13 @@
         <v>90</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>94</v>
@@ -1125,27 +1140,27 @@
         <v>37</v>
       </c>
       <c r="H12" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="13" t="s">
         <v>70</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>87</v>
+      <c r="B13" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>94</v>
@@ -1157,13 +1172,13 @@
         <v>37</v>
       </c>
       <c r="H13" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="13" t="s">
         <v>70</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1176,22 +1191,18 @@
     <hyperlink r:id="rId6" ref="C7"/>
     <hyperlink r:id="rId7" ref="C8"/>
     <hyperlink r:id="rId8" ref="C9"/>
-    <hyperlink r:id="rId9" ref="C10"/>
-    <hyperlink r:id="rId10" ref="C11"/>
-    <hyperlink r:id="rId11" ref="C12"/>
-    <hyperlink r:id="rId12" ref="C13"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:J26"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1904,6 +1915,38 @@
       </c>
       <c r="J26" s="14" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1929,8 +1972,9 @@
     <hyperlink r:id="rId19" ref="C24"/>
     <hyperlink r:id="rId20" ref="C25"/>
     <hyperlink r:id="rId21" ref="C26"/>
+    <hyperlink r:id="rId22" ref="C27"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" r:id="rId22"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>
--- a/lib_template/com.microsite.runner.xlsx
+++ b/lib_template/com.microsite.runner.xlsx
@@ -10,12 +10,12 @@
     <sheet name="MicroSiteRunner" r:id="rId1" sheetId="1"/>
     <sheet name="Sheet1" r:id="rId2" sheetId="2"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="101">
   <si>
     <t>S.No</t>
   </si>
@@ -318,9 +318,6 @@
   </si>
   <si>
     <t>"13"</t>
-  </si>
-  <si>
-    <t>Template_14</t>
   </si>
 </sst>
 </file>
@@ -751,7 +748,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,7 +817,7 @@
         <v>37</v>
       </c>
       <c r="H2" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>70</v>
@@ -829,21 +826,21 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>53</v>
+      <c r="B3" s="15" t="s">
+        <v>54</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>39</v>
+        <v>20</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>36</v>
@@ -852,27 +849,27 @@
         <v>37</v>
       </c>
       <c r="H3" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row ht="30" r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>54</v>
+      <c r="B4" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>94</v>
@@ -884,13 +881,13 @@
         <v>37</v>
       </c>
       <c r="H4" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="13" t="s">
         <v>70</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -898,13 +895,13 @@
         <v>10</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>94</v>
@@ -916,13 +913,13 @@
         <v>37</v>
       </c>
       <c r="H5" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="13" t="s">
         <v>70</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -930,13 +927,13 @@
         <v>11</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>94</v>
@@ -948,13 +945,13 @@
         <v>37</v>
       </c>
       <c r="H6" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="13" t="s">
         <v>70</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -962,13 +959,13 @@
         <v>12</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>94</v>
@@ -980,13 +977,13 @@
         <v>37</v>
       </c>
       <c r="H7" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="13" t="s">
         <v>70</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -994,13 +991,13 @@
         <v>13</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>94</v>
@@ -1012,13 +1009,13 @@
         <v>37</v>
       </c>
       <c r="H8" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="13" t="s">
         <v>70</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1026,13 +1023,13 @@
         <v>40</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>94</v>
@@ -1044,13 +1041,13 @@
         <v>37</v>
       </c>
       <c r="H9" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="13" t="s">
         <v>70</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row ht="30" r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1076,7 +1073,7 @@
         <v>37</v>
       </c>
       <c r="H10" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="13" t="s">
         <v>70</v>
@@ -1108,7 +1105,7 @@
         <v>37</v>
       </c>
       <c r="H11" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="13" t="s">
         <v>70</v>
@@ -1140,7 +1137,7 @@
         <v>37</v>
       </c>
       <c r="H12" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="13" t="s">
         <v>70</v>
@@ -1160,7 +1157,7 @@
         <v>97</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>94</v>
@@ -1184,16 +1181,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="C2"/>
-    <hyperlink r:id="rId2" ref="C3"/>
-    <hyperlink r:id="rId3" ref="C4"/>
-    <hyperlink r:id="rId4" ref="C5"/>
-    <hyperlink r:id="rId5" ref="C6"/>
-    <hyperlink r:id="rId6" ref="C7"/>
-    <hyperlink r:id="rId7" ref="C8"/>
-    <hyperlink r:id="rId8" ref="C9"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
